--- a/TestCases/Back End/DeleteEmployee-BackEnd-Admin.xlsx
+++ b/TestCases/Back End/DeleteEmployee-BackEnd-Admin.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{77AC2C7D-0F80-4E9F-90CC-58E02239FC82}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{DF6E12D8-16AF-441C-898F-A6330E279210}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{77AC2C7D-0F80-4E9F-90CC-58E02239FC82}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{2B65EF93-2730-47F5-A788-DD9499D0CB45}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Role: Admin</t>
   </si>
@@ -41,7 +41,31 @@
     <t>I am returned to the login page</t>
   </si>
   <si>
-    <t>Step 2: Log in and delete an employee</t>
+    <t>Step 2: Log in as the appropriate role</t>
+  </si>
+  <si>
+    <t>I am redirected to the users dashboard</t>
+  </si>
+  <si>
+    <t>Step 3: Click on View Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A list of employees are displayed </t>
+  </si>
+  <si>
+    <t>Step 4: Select an employee to and click on delete</t>
+  </si>
+  <si>
+    <t>I am redirected to the user's information page</t>
+  </si>
+  <si>
+    <t>Step 5:Click "Delete this employee"</t>
+  </si>
+  <si>
+    <t>A pop up appears saying "Are you sure you want to delete this employee"</t>
+  </si>
+  <si>
+    <t>Step 6: Confirm the delete</t>
   </si>
   <si>
     <t>The employee is removed from the database</t>
@@ -394,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,10 +469,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56.25" customHeight="1"/>
-    <row r="5" spans="1:6" ht="58.5" customHeight="1"/>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
+    <row r="4" spans="1:6" ht="56.25" customHeight="1">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58.5" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
   </sheetData>

--- a/TestCases/Back End/DeleteEmployee-BackEnd-Admin.xlsx
+++ b/TestCases/Back End/DeleteEmployee-BackEnd-Admin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{77AC2C7D-0F80-4E9F-90CC-58E02239FC82}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{2B65EF93-2730-47F5-A788-DD9499D0CB45}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{77AC2C7D-0F80-4E9F-90CC-58E02239FC82}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{E4FB01D1-57A0-4771-83F4-0714A1EA893A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Role: Admin</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>I am redirected to the user's information page</t>
+  </si>
+  <si>
+    <t>an exception was thrown</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
   <si>
     <t>Step 5:Click "Delete this employee"</t>
@@ -418,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,21 +490,27 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="60.75" customHeight="1">
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
     </row>
